--- a/ROC_Graphs/ISPRED.ROC_RSA0.0.xlsx
+++ b/ROC_Graphs/ISPRED.ROC_RSA0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mordechaiwalder/Desktop/LAB/ROC_Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E64C45-6E34-BF45-A16A-536D7449615D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C2FA3-FB94-5D40-8B23-A4B7E9B3257E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="460" windowWidth="21140" windowHeight="16680" xr2:uid="{CDC94C60-A522-384B-B3F2-2C37C89E99EE}"/>
   </bookViews>
@@ -1770,16 +1770,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>893186</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>139561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE9605-ABB6-7449-8665-3F0F76E3C1FA}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ROC_Graphs/ISPRED.ROC_RSA0.0.xlsx
+++ b/ROC_Graphs/ISPRED.ROC_RSA0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mordechaiwalder/Desktop/LAB/ROC_Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C2FA3-FB94-5D40-8B23-A4B7E9B3257E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB204892-B7F5-944D-ADD9-DF0789CE0C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="21140" windowHeight="16680" xr2:uid="{CDC94C60-A522-384B-B3F2-2C37C89E99EE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21140" windowHeight="16680" xr2:uid="{CDC94C60-A522-384B-B3F2-2C37C89E99EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,6 +132,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80133023268690395"/>
+          <c:y val="0.2682176424755372"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1770,16 +1778,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>893186</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>71</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>334945</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139561</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408006</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125605</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2106,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE9605-ABB6-7449-8665-3F0F76E3C1FA}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2164,6 +2172,10 @@
         <f>(C2-C3)*B3</f>
         <v>0.345862</v>
       </c>
+      <c r="H3">
+        <f>(C2-C3)*(B2-B3)*(0.5)+F3</f>
+        <v>0.37193100000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2183,6 +2195,10 @@
         <f t="shared" ref="F4:F67" si="1">(C3-C4)*B4</f>
         <v>0.13398799999999997</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="2">(C3-C4)*(B3-B4)*(0.5)+F4</f>
+        <v>0.13825199999999996</v>
+      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -2208,6 +2224,10 @@
         <f t="shared" si="1"/>
         <v>5.5042000000000008E-2</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>5.7341500000000004E-2</v>
+      </c>
       <c r="M5">
         <v>1</v>
       </c>
@@ -2233,6 +2253,10 @@
         <f t="shared" si="1"/>
         <v>2.6675999999999984E-2</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2.7663999999999984E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2252,6 +2276,10 @@
         <f t="shared" si="1"/>
         <v>1.8522000000000018E-2</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.8738000000000015E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2271,6 +2299,10 @@
         <f t="shared" si="1"/>
         <v>1.4629999999999976E-2</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.4860999999999977E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2290,6 +2322,10 @@
         <f t="shared" si="1"/>
         <v>1.173600000000001E-2</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.1853000000000011E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2309,6 +2345,10 @@
         <f t="shared" si="1"/>
         <v>7.7280000000000074E-3</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>7.7760000000000077E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2328,6 +2368,10 @@
         <f t="shared" si="1"/>
         <v>6.9740000000000062E-3</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>7.0290000000000066E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2347,6 +2391,10 @@
         <f t="shared" si="1"/>
         <v>5.6609999999999872E-3</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5.6834999999999872E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2366,6 +2414,10 @@
         <f t="shared" si="1"/>
         <v>6.1600000000000057E-3</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>6.2250000000000057E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2385,6 +2437,10 @@
         <f t="shared" si="1"/>
         <v>4.2700000000000038E-3</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>4.291000000000004E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2404,6 +2460,10 @@
         <f t="shared" si="1"/>
         <v>4.2000000000000032E-3</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>4.2350000000000035E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2423,8 +2483,12 @@
         <f t="shared" si="1"/>
         <v>3.5519999999999866E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3.5759999999999863E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.15</v>
       </c>
@@ -2442,8 +2506,12 @@
         <f t="shared" si="1"/>
         <v>3.5040000000000028E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3.5280000000000029E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.16</v>
       </c>
@@ -2461,8 +2529,12 @@
         <f t="shared" si="1"/>
         <v>2.9200000000000025E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.9200000000000025E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.17</v>
       </c>
@@ -2480,8 +2552,12 @@
         <f t="shared" si="1"/>
         <v>2.8550000000000025E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.8875000000000025E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.18</v>
       </c>
@@ -2499,8 +2575,12 @@
         <f t="shared" si="1"/>
         <v>2.8050000000000028E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.8300000000000027E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.19</v>
       </c>
@@ -2518,8 +2598,12 @@
         <f t="shared" si="1"/>
         <v>2.2120000000000022E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2.2280000000000021E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.2</v>
       </c>
@@ -2537,8 +2621,12 @@
         <f t="shared" si="1"/>
         <v>2.1719999999999869E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>2.1919999999999869E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.21</v>
       </c>
@@ -2556,8 +2644,12 @@
         <f t="shared" si="1"/>
         <v>1.6290000000000015E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1.6290000000000015E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.22</v>
       </c>
@@ -2575,8 +2667,12 @@
         <f t="shared" si="1"/>
         <v>1.6200000000000016E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1.6245000000000016E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.23</v>
       </c>
@@ -2594,8 +2690,12 @@
         <f t="shared" si="1"/>
         <v>1.6110000000000015E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.6155000000000015E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.24</v>
       </c>
@@ -2613,8 +2713,12 @@
         <f t="shared" si="1"/>
         <v>5.3700000000000048E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>5.3700000000000048E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.25</v>
       </c>
@@ -2632,8 +2736,12 @@
         <f t="shared" si="1"/>
         <v>1.0540000000000009E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1.0640000000000009E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.26</v>
       </c>
@@ -2651,8 +2759,12 @@
         <f t="shared" si="1"/>
         <v>1.5720000000000016E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1.5765000000000015E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.27</v>
       </c>
@@ -2670,8 +2782,12 @@
         <f t="shared" si="1"/>
         <v>1.0280000000000009E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1.0380000000000009E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -2689,8 +2805,12 @@
         <f t="shared" si="1"/>
         <v>1.022000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1.025000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -2708,8 +2828,12 @@
         <f t="shared" si="1"/>
         <v>1.5270000000000014E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1.5300000000000014E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.3</v>
       </c>
@@ -2727,8 +2851,12 @@
         <f t="shared" si="1"/>
         <v>1.0060000000000008E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1.0120000000000007E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.31</v>
       </c>
@@ -2746,8 +2874,12 @@
         <f t="shared" si="1"/>
         <v>1.0060000000000008E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1.0060000000000008E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.32</v>
       </c>
@@ -2765,8 +2897,12 @@
         <f t="shared" si="1"/>
         <v>1.0060000000000008E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1.0060000000000008E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.33</v>
       </c>
@@ -2784,8 +2920,12 @@
         <f t="shared" si="1"/>
         <v>1.5029999999999874E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1.5059999999999874E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.34</v>
       </c>
@@ -2803,8 +2943,12 @@
         <f t="shared" si="1"/>
         <v>9.9600000000000079E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>9.9900000000000076E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.35</v>
       </c>
@@ -2822,8 +2966,12 @@
         <f t="shared" si="1"/>
         <v>4.980000000000004E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>4.980000000000004E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.36</v>
       </c>
@@ -2841,8 +2989,12 @@
         <f t="shared" si="1"/>
         <v>4.9000000000000042E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>4.9400000000000041E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.37</v>
       </c>
@@ -2860,8 +3012,12 @@
         <f t="shared" si="1"/>
         <v>4.850000000000004E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>4.8750000000000041E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.38</v>
       </c>
@@ -2879,8 +3035,12 @@
         <f t="shared" si="1"/>
         <v>9.7000000000000081E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000081E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.39</v>
       </c>
@@ -2898,8 +3058,12 @@
         <f t="shared" si="1"/>
         <v>4.8300000000000041E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>4.8400000000000043E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.4</v>
       </c>
@@ -2917,8 +3081,12 @@
         <f t="shared" si="1"/>
         <v>9.6600000000000082E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>9.6600000000000082E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.41</v>
       </c>
@@ -2936,8 +3104,12 @@
         <f t="shared" si="1"/>
         <v>9.6600000000000082E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>9.6600000000000082E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.42</v>
       </c>
@@ -2955,8 +3127,12 @@
         <f t="shared" si="1"/>
         <v>9.6000000000000078E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>9.6300000000000075E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.43</v>
       </c>
@@ -2974,8 +3150,12 @@
         <f t="shared" si="1"/>
         <v>9.5400000000000085E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>9.5700000000000082E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.44</v>
       </c>
@@ -2993,8 +3173,12 @@
         <f t="shared" si="1"/>
         <v>9.5000000000000076E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>9.5200000000000081E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.45</v>
       </c>
@@ -3012,8 +3196,12 @@
         <f t="shared" si="1"/>
         <v>4.7200000000000041E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>4.735000000000004E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.46</v>
       </c>
@@ -3031,8 +3219,12 @@
         <f t="shared" si="1"/>
         <v>4.690000000000004E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>4.7050000000000038E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.47</v>
       </c>
@@ -3050,8 +3242,12 @@
         <f t="shared" si="1"/>
         <v>9.2399999999999449E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>9.3099999999999444E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.48</v>
       </c>
@@ -3069,8 +3265,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.49</v>
       </c>
@@ -3088,8 +3288,12 @@
         <f t="shared" si="1"/>
         <v>9.1200000000000081E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>9.1500000000000077E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.5</v>
       </c>
@@ -3107,8 +3311,12 @@
         <f t="shared" si="1"/>
         <v>4.5400000000000041E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>4.5500000000000043E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.51</v>
       </c>
@@ -3126,8 +3334,12 @@
         <f t="shared" si="1"/>
         <v>9.0200000000000078E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>9.0500000000000075E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.52</v>
       </c>
@@ -3145,8 +3357,12 @@
         <f t="shared" si="1"/>
         <v>4.5100000000000039E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>4.5100000000000039E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.53</v>
       </c>
@@ -3164,8 +3380,12 @@
         <f t="shared" si="1"/>
         <v>1.7840000000000015E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>1.7940000000000015E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.54</v>
       </c>
@@ -3183,8 +3403,12 @@
         <f t="shared" si="1"/>
         <v>8.8200000000000084E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>8.8700000000000085E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3202,8 +3426,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -3221,8 +3449,12 @@
         <f t="shared" si="1"/>
         <v>4.3300000000000039E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>4.3550000000000039E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.56999999999999995</v>
       </c>
@@ -3240,8 +3472,12 @@
         <f t="shared" si="1"/>
         <v>4.2800000000000037E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>4.3050000000000038E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -3259,8 +3495,12 @@
         <f t="shared" si="1"/>
         <v>8.4399999999999482E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>8.4999999999999475E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.59</v>
       </c>
@@ -3278,8 +3518,12 @@
         <f t="shared" si="1"/>
         <v>8.4000000000000069E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>8.4200000000000073E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.6</v>
       </c>
@@ -3297,8 +3541,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.61</v>
       </c>
@@ -3316,8 +3564,12 @@
         <f t="shared" si="1"/>
         <v>4.1500000000000033E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>4.1750000000000034E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.62</v>
       </c>
@@ -3335,8 +3587,12 @@
         <f t="shared" si="1"/>
         <v>4.0900000000000035E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>4.1200000000000037E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.63</v>
       </c>
@@ -3354,8 +3610,12 @@
         <f t="shared" si="1"/>
         <v>4.0900000000000035E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>4.0900000000000035E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.64</v>
       </c>
@@ -3373,8 +3633,12 @@
         <f t="shared" si="1"/>
         <v>8.140000000000007E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>8.1600000000000075E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.65</v>
       </c>
@@ -3392,8 +3656,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.66</v>
       </c>
@@ -3404,15 +3672,19 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E102" si="2">(C67-C68)*B67</f>
+        <f t="shared" ref="E68:E102" si="3">(C67-C68)*B67</f>
         <v>3.9400000000000036E-4</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F102" si="3">(C67-C68)*B68</f>
+        <f t="shared" ref="F68:F102" si="4">(C67-C68)*B68</f>
         <v>3.9100000000000034E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f t="shared" ref="H68:H102" si="5">(C67-C68)*(B67-B68)*(0.5)+F68</f>
+        <v>3.9250000000000032E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.67</v>
       </c>
@@ -3423,15 +3695,19 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1730000000000011E-3</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1490000000000011E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>1.1610000000000012E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.68</v>
       </c>
@@ -3442,15 +3718,19 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8300000000000036E-4</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7800000000000035E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>3.8050000000000036E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.69</v>
       </c>
@@ -3461,72 +3741,88 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.560000000000007E-4</v>
       </c>
       <c r="F71">
+        <f t="shared" si="4"/>
+        <v>7.4600000000000068E-4</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>7.5100000000000069E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="C72" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>3.7299999999999513E-4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>3.7299999999999513E-4</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>3.7299999999999513E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="C73" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>3.7300000000000034E-4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>3.7300000000000034E-4</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>3.7300000000000034E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="3"/>
         <v>7.4600000000000068E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="C72" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>3.7299999999999513E-4</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
-        <v>3.7299999999999513E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="C73" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>3.7300000000000034E-4</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
-        <v>3.7300000000000034E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="C74" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
-        <v>7.4600000000000068E-4</v>
-      </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4000000000000064E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>7.430000000000006E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.73</v>
       </c>
@@ -3537,53 +3833,65 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7000000000000032E-4</v>
       </c>
       <c r="F75">
+        <f t="shared" si="4"/>
+        <v>3.6200000000000029E-4</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>3.6600000000000028E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="3"/>
         <v>3.6200000000000029E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="2"/>
-        <v>3.6200000000000029E-4</v>
-      </c>
       <c r="F76">
+        <f t="shared" si="4"/>
+        <v>3.5700000000000028E-4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>3.5950000000000028E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C77" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="3"/>
         <v>3.5700000000000028E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
-        <v>3.5700000000000028E-4</v>
-      </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5200000000000032E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>3.5450000000000032E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.76</v>
       </c>
@@ -3594,15 +3902,19 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0400000000000063E-4</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9800000000000059E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>7.0100000000000056E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.77</v>
       </c>
@@ -3613,15 +3925,19 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.490000000000003E-4</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.470000000000003E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>3.4800000000000033E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.78</v>
       </c>
@@ -3632,15 +3948,19 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9400000000000061E-4</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7800000000000065E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>6.8600000000000063E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.79</v>
       </c>
@@ -3651,15 +3971,19 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3900000000000033E-4</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3400000000000031E-4</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>3.3650000000000032E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.8</v>
       </c>
@@ -3670,15 +3994,19 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6800000000000062E-4</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6200000000000059E-4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>6.6500000000000055E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.81</v>
       </c>
@@ -3689,15 +4017,19 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6199999999999603E-4</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.559999999999961E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>6.5899999999999607E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.82</v>
       </c>
@@ -3708,15 +4040,19 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8400000000000093E-4</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.78000000000001E-4</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>9.8100000000000097E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.83</v>
       </c>
@@ -3727,15 +4063,19 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2600000000000028E-4</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.180000000000003E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>3.2200000000000029E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.84</v>
       </c>
@@ -3746,53 +4086,65 @@
         <v>6.3E-2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3600000000000061E-4</v>
       </c>
       <c r="F86">
+        <f t="shared" si="4"/>
+        <v>6.2000000000000054E-4</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>6.2800000000000052E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>3.1000000000000027E-4</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>3.1000000000000027E-4</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>3.1000000000000027E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="3"/>
         <v>6.2000000000000054E-4</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="C87" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
-        <v>3.1000000000000027E-4</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
-        <v>3.1000000000000027E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
-        <v>6.2000000000000054E-4</v>
-      </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0400000000000048E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>6.1200000000000046E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.87</v>
       </c>
@@ -3803,15 +4155,19 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0399999999999842E-4</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.899999999999984E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>5.9699999999999836E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.88</v>
       </c>
@@ -3822,53 +4178,65 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9000000000000046E-4</v>
       </c>
       <c r="F90">
+        <f t="shared" si="4"/>
+        <v>5.7400000000000051E-4</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>5.8200000000000049E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="3"/>
         <v>5.7400000000000051E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C91" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="2"/>
-        <v>5.7400000000000051E-4</v>
-      </c>
       <c r="F91">
+        <f t="shared" si="4"/>
+        <v>5.4800000000000053E-4</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>5.6100000000000052E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="3"/>
         <v>5.4800000000000053E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="C92" s="2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="2"/>
-        <v>5.4800000000000053E-4</v>
-      </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2600000000000053E-4</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>5.3700000000000058E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.91</v>
       </c>
@@ -3879,15 +4247,19 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.889999999999989E-4</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5899999999999893E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>7.7399999999999897E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.92</v>
       </c>
@@ -3898,15 +4270,19 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5300000000000024E-4</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4500000000000021E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>2.490000000000002E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.93</v>
       </c>
@@ -3917,15 +4293,19 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3500000000000063E-4</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8700000000000065E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>7.1100000000000069E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.94</v>
       </c>
@@ -3936,15 +4316,19 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.580000000000004E-4</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1600000000000035E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>4.3700000000000038E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.95</v>
       </c>
@@ -3955,15 +4339,19 @@
         <v>0.04</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2399999999999912E-4</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9399999999999915E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>6.0899999999999908E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.96</v>
       </c>
@@ -3974,15 +4362,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8999999999999956E-4</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.849999999999995E-4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>9.3749999999999953E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.97</v>
       </c>
@@ -3993,15 +4385,19 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0620000000000002E-3</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8400000000000028E-4</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>1.0230000000000003E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.98</v>
       </c>
@@ -4012,15 +4408,19 @@
         <v>0.02</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4760000000000003E-3</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1900000000000007E-4</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>1.1475000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.99</v>
       </c>
@@ -4031,15 +4431,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0920000000000001E-3</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7199999999999999E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>7.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -4050,15 +4454,19 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>1.2400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E103">
         <f>SUM(E3:E102)</f>
         <v>0.78915600000000019</v>
@@ -4070,6 +4478,10 @@
       <c r="G103">
         <f>AVERAGE(E103:F103)</f>
         <v>0.75336550000000013</v>
+      </c>
+      <c r="H103">
+        <f>SUM(H3:H102)</f>
+        <v>0.75336549999999991</v>
       </c>
     </row>
   </sheetData>
